--- a/文档/PAM Factory Debug Tools V2.0 改进要求(1).xlsx
+++ b/文档/PAM Factory Debug Tools V2.0 改进要求(1).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18540"/>
+    <workbookView xWindow="1350" yWindow="5390" windowWidth="22310" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>PAM Factory Debug Tools V2.0 改进要求</t>
   </si>
@@ -67,23 +67,27 @@
     <t>简化下载、上传窗口，去除资源按钮，功能变更为点击“开始下载”和“开始上传”按钮后都弹出资源窗口询问文件名；</t>
   </si>
   <si>
-    <t>曲线窗口改进成一个弹出式窗口，Y轴为电压幅值，X轴为功率值，数据来源为“控制窗口”的数据。</t>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2条曲线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线窗口改进成“控制窗口”的表格以行为单位增加一个右键功能，Y轴为电压幅值，X轴为功率值，数据来源为“控制窗口”的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“控制窗口”的表格以行为单位增加一个右键功能，功能名称为“拷贝到预备区”，预备区为下图所示：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,151 +96,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,192 +126,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -438,313 +139,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -755,7 +176,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -777,7 +198,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -819,7 +240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -861,7 +282,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -903,7 +324,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -945,7 +366,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -987,7 +408,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1029,7 +450,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:srcRect l="-141" t="-194" r="141" b="64931"/>
         <a:stretch>
           <a:fillRect/>
@@ -1072,7 +493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1114,7 +535,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1156,7 +577,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1198,7 +619,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1230,11 +651,11 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>116</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
@@ -1247,8 +668,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7724775" y="19202400"/>
-              <a:ext cx="923925" cy="838200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1268,8 +689,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1281,15 +702,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="20574000"/>
-          <a:ext cx="11782425" cy="1076325"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="21336000"/>
+          <a:ext cx="10852150" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1323,7 +744,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1365,7 +786,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1396,12 +817,12 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>238125</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
@@ -1414,8 +835,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9782175" y="5486400"/>
-              <a:ext cx="923925" cy="838200"/>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1429,16 +850,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1448,15 +869,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4819650" y="6657975"/>
-          <a:ext cx="7353300" cy="1847850"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3968750" y="6969125"/>
+          <a:ext cx="6765925" cy="1917700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,7 +911,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1766,37 +1187,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:I156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1804,23 +1228,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="L14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="P33" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -1828,7 +1272,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -1836,31 +1285,45 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T79" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>7</v>
       </c>
       <c r="F90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H90" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8</v>
       </c>
       <c r="G98" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="O98" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>9</v>
       </c>
       <c r="F103" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="H103" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10</v>
       </c>
@@ -1868,15 +1331,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="6:7">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
         <v>10</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="6:7">
+      <c r="H112" s="3"/>
+      <c r="M112" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
         <v>12</v>
       </c>
@@ -1884,7 +1351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="6:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
         <v>14</v>
       </c>
@@ -1892,44 +1359,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>13</v>
       </c>
-      <c r="H130" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="H130" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H132" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="3:3">
-      <c r="C156" t="s">
-        <v>18</v>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1026" progId="Excel.Sheet.12" r:id="rId3" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -1939,22 +1412,22 @@
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>116</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1026" progId="Excel.Sheet.12" r:id="rId3" dvAspect="DVASPECT_ICON"/>
+        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Excel.Sheet.12" r:id="rId5" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
@@ -1963,17 +1436,17 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
                 <xdr:row>36</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject shapeId="1028" progId="Excel.Sheet.12" r:id="rId5" dvAspect="DVASPECT_ICON"/>
+        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
